--- a/sqat/public/excel/PlantillaAsignacion.xlsx
+++ b/sqat/public/excel/PlantillaAsignacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigoalonsodomingu\Desktop\proyectos\Sistema-Gestor-de-Activos\sqat\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BB7A2F-F0F0-43D7-96A5-E28657E4A225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070D3AF5-A6F8-41CE-95A6-39D18A936417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{63237FC5-12C3-49CE-B41B-20BFD7A0CF2B}"/>
   </bookViews>
@@ -51,20 +51,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ASIGNADO
-DISPONIBLE
-ROBADO
-PARA BAJA
-DONADO</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Adquirido
+Preparación
+Disponible
+Asignado
+Devuelto
+Perdido
+Robado
+Para Baja
+Donado
+Vendido
 </t>
         </r>
       </text>
@@ -76,19 +72,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>RESPONSABLE</t>
-  </si>
-  <si>
-    <t>USERS</t>
-  </si>
-  <si>
-    <t>Nro Serie</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
     <t>Justificacion doble activo</t>
+  </si>
+  <si>
+    <t>Nro Serie activo</t>
+  </si>
+  <si>
+    <t>User Usuario</t>
+  </si>
+  <si>
+    <t>User Responsable</t>
   </si>
 </sst>
 </file>
@@ -111,9 +107,10 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -131,21 +128,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -171,12 +157,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,26 +498,33 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
